--- a/density_data.xlsx
+++ b/density_data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
@@ -928,6 +928,51 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-09-18 10:00:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-12-25 09:15:16</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TestModel</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>白班</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.2345</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.2342</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.2347</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.2345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
